--- a/solutions/aws/ai/intelligent-document-processing/delivery/configuration.xlsx
+++ b/solutions/aws/ai/intelligent-document-processing/delivery/configuration.xlsx
@@ -215,10 +215,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>2</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1428750" cy="476250"/>
+    <ext cx="1143000" cy="285750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -226,62 +226,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1428750" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1905000" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -603,7 +547,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
     <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="60" customHeight="1"/>
+    <row r="3" ht="20" customHeight="1"/>
     <row r="4" ht="30" customHeight="1">
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -627,7 +571,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 03, 2025</t>
+          <t>November 09, 2025</t>
         </is>
       </c>
     </row>
@@ -646,7 +590,7 @@
     <row r="9">
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Purpose:</t>
+          <t>Customer Name:</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -669,9 +613,9 @@
     </row>
     <row r="11" ht="20" customHeight="1"/>
     <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="60" customHeight="1"/>
+    <row r="13" ht="10" customHeight="1"/>
     <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="60" customHeight="1"/>
+    <row r="15" ht="40" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/solutions/aws/ai/intelligent-document-processing/delivery/configuration.xlsx
+++ b/solutions/aws/ai/intelligent-document-processing/delivery/configuration.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 09, 2025</t>
+          <t>November 13, 2025</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="26" customHeight="1">
+    <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t>TEXTRACT_ENDPOINT</t>
@@ -1040,7 +1040,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="26" customHeight="1">
+    <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>COMPREHEND_ENDPOINT</t>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="26" customHeight="1">
+    <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
           <t>SAGEMAKER_ENDPOINT</t>
@@ -1170,7 +1170,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="26" customHeight="1">
+    <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
           <t>S3_BUCKET_DOCUMENTS</t>
@@ -1235,7 +1235,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="26" customHeight="1">
+    <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
           <t>S3_BUCKET_RESULTS</t>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="26" customHeight="1">
+    <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
           <t>S3_BUCKET_MODELS</t>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="26" customHeight="1">
+    <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
           <t>LAMBDA_TIMEOUT</t>
@@ -1430,7 +1430,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="26" customHeight="1">
+    <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>LAMBDA_MEMORY</t>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="26" customHeight="1">
+    <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
           <t>API_GATEWAY_STAGE</t>
@@ -1560,7 +1560,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="26" customHeight="1">
+    <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
           <t>API_THROTTLE_BURST</t>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="26" customHeight="1">
+    <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
           <t>API_THROTTLE_RATE</t>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="26" customHeight="1">
+    <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
           <t>DOCUMENT_MAX_SIZE_MB</t>
@@ -1755,7 +1755,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="26" customHeight="1">
+    <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
           <t>DOCUMENT_FORMATS</t>
@@ -1820,7 +1820,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="26" customHeight="1">
+    <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
           <t>PROCESSING_TIMEOUT</t>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="26" customHeight="1">
+    <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
           <t>CONFIDENCE_THRESHOLD</t>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="26" customHeight="1">
+    <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
           <t>MODEL_RETRAIN_THRESHOLD</t>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="26" customHeight="1">
+    <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
           <t>BATCH_SIZE</t>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="26" customHeight="1">
+    <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
           <t>CLOUDWATCH_LOG_LEVEL</t>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="26" customHeight="1">
+    <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
           <t>CLOUDWATCH_RETENTION_DAYS</t>
@@ -2210,7 +2210,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="26" customHeight="1">
+    <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
           <t>XRAY_TRACING_ENABLED</t>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="26" customHeight="1">
+    <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
           <t>ENCRYPTION_KEY_ID</t>
@@ -2340,7 +2340,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="26" customHeight="1">
+    <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
           <t>IAM_ROLE_LAMBDA</t>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="26" customHeight="1">
+    <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
           <t>IAM_ROLE_TEXTRACT</t>
@@ -2470,7 +2470,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="26" customHeight="1">
+    <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
           <t>CORS_ALLOWED_ORIGINS</t>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="26" customHeight="1">
+    <row r="30">
       <c r="A30" s="6" t="inlineStr">
         <is>
           <t>API_KEY_ENABLED</t>
@@ -2600,7 +2600,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="26" customHeight="1">
+    <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
           <t>VPC_ID</t>
@@ -2665,7 +2665,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="26" customHeight="1">
+    <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
           <t>SUBNET_IDS</t>
@@ -2730,7 +2730,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="26" customHeight="1">
+    <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
           <t>SECURITY_GROUP_ID</t>
@@ -2795,7 +2795,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="26" customHeight="1">
+    <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
           <t>NAT_GATEWAY_ENABLED</t>
@@ -2860,7 +2860,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="26" customHeight="1">
+    <row r="35">
       <c r="A35" s="7" t="inlineStr">
         <is>
           <t>DOCUMENT_CLASSIFICATION_MODELS</t>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="26" customHeight="1">
+    <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
           <t>CUSTOM_MODEL_ACCURACY_TARGET</t>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="26" customHeight="1">
+    <row r="37">
       <c r="A37" s="7" t="inlineStr">
         <is>
           <t>TRAINING_DATA_MIN_SAMPLES</t>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="26" customHeight="1">
+    <row r="38">
       <c r="A38" s="6" t="inlineStr">
         <is>
           <t>AUTO_SCALING_ENABLED</t>
@@ -3120,7 +3120,7 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="26" customHeight="1">
+    <row r="39">
       <c r="A39" s="7" t="inlineStr">
         <is>
           <t>RESERVED_CONCURRENCY</t>
@@ -3185,7 +3185,7 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="26" customHeight="1">
+    <row r="40">
       <c r="A40" s="6" t="inlineStr">
         <is>
           <t>PROVISIONED_CONCURRENCY</t>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="26" customHeight="1">
+    <row r="41">
       <c r="A41" s="7" t="inlineStr">
         <is>
           <t>DEAD_LETTER_QUEUE_ENABLED</t>
@@ -3315,7 +3315,7 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="26" customHeight="1">
+    <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
           <t>RETRY_ATTEMPTS</t>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="26" customHeight="1">
+    <row r="43">
       <c r="A43" s="7" t="inlineStr">
         <is>
           <t>RETRY_BACKOFF_MS</t>
@@ -3445,7 +3445,7 @@
         </is>
       </c>
     </row>
-    <row r="44" ht="26" customHeight="1">
+    <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
           <t>NOTIFICATION_SNS_TOPIC</t>
@@ -3510,7 +3510,7 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="26" customHeight="1">
+    <row r="45">
       <c r="A45" s="7" t="inlineStr">
         <is>
           <t>EMAIL_NOTIFICATIONS_ENABLED</t>
@@ -3575,7 +3575,7 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="26" customHeight="1">
+    <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
           <t>COST_ALLOCATION_TAGS</t>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="26" customHeight="1">
+    <row r="47">
       <c r="A47" s="7" t="inlineStr">
         <is>
           <t>BACKUP_ENABLED</t>
@@ -3705,7 +3705,7 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="26" customHeight="1">
+    <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
           <t>BACKUP_RETENTION_DAYS</t>
@@ -3770,7 +3770,7 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="26" customHeight="1">
+    <row r="49">
       <c r="A49" s="7" t="inlineStr">
         <is>
           <t>DISASTER_RECOVERY_ENABLED</t>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
     </row>
-    <row r="50" ht="26" customHeight="1">
+    <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
           <t>PERFORMANCE_INSIGHTS_ENABLED</t>
@@ -3900,7 +3900,7 @@
         </is>
       </c>
     </row>
-    <row r="51" ht="26" customHeight="1">
+    <row r="51">
       <c r="A51" s="7" t="inlineStr">
         <is>
           <t>ANOMALY_DETECTION_ENABLED</t>

--- a/solutions/aws/ai/intelligent-document-processing/delivery/configuration.xlsx
+++ b/solutions/aws/ai/intelligent-document-processing/delivery/configuration.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 13, 2025</t>
+          <t>November 15, 2025</t>
         </is>
       </c>
     </row>
